--- a/Sales_Data/monthly_totals_2019.xlsx
+++ b/Sales_Data/monthly_totals_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c3faf0438cc858a/Desktop/Business Analysis/sales_analysis_python/Sales_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF5F691-9A88-4354-A10B-C72C3FD43F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{2EF5F691-9A88-4354-A10B-C72C3FD43F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76BA4DB9-8DB0-4E91-A769-C0FE73B4802E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A35B19A2-6523-415C-B3BE-820E6B62C631}"/>
   </bookViews>
@@ -429,13 +429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93806D72-2078-4452-8761-3B256411746C}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -450,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1803585</v>
+        <v>1813586.4399999138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2189286</v>
+        <v>2202022.4199999655</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2791718</v>
+        <v>2807100.3800003603</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3368294</v>
+        <v>3390670.2400007029</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3135680</v>
+        <v>3152606.7500005532</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2562486</v>
+        <v>2577802.2600001763</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2633019</v>
+        <v>2647775.7600002391</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2230750</v>
+        <v>2244467.8799999929</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2085392</v>
+        <v>2097560.1299998909</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3716245</v>
+        <v>3736726.8800009703</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3181198</v>
+        <v>3199603.2000005869</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +541,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4589254</v>
+        <v>4613443.34000153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>34483365.68000488</v>
       </c>
     </row>
   </sheetData>

--- a/Sales_Data/monthly_totals_2019.xlsx
+++ b/Sales_Data/monthly_totals_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c3faf0438cc858a/Desktop/Business Analysis/sales_analysis_python/Sales_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{2EF5F691-9A88-4354-A10B-C72C3FD43F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76BA4DB9-8DB0-4E91-A769-C0FE73B4802E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{2EF5F691-9A88-4354-A10B-C72C3FD43F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D252FF53-A93C-45D0-B32B-7B08CB8B2E71}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A35B19A2-6523-415C-B3BE-820E6B62C631}"/>
+    <workbookView minimized="1" xWindow="9435" yWindow="3780" windowWidth="7500" windowHeight="6000" xr2:uid="{A35B19A2-6523-415C-B3BE-820E6B62C631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
